--- a/Modèle+analyse+SEO+et+accessibilité.xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alta\Desktop\Openclassrooms\Projets en cours\P4_lambert_antoine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57FDF84-6FD8-411B-9C62-95447D8AF2FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF697B-1DBB-4738-AAC9-EEAD64605369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21000" tabRatio="442" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -2471,7 +2471,8 @@
     <hyperlink ref="F18" r:id="rId25" xr:uid="{A520D00A-B879-42C8-87DC-550A7F4198DB}"/>
     <hyperlink ref="F19" r:id="rId26" xr:uid="{2EAD1710-644D-405C-9681-537123382D6F}"/>
   </hyperlinks>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId27"/>
+  <pageSetup scale="34" orientation="landscape" r:id="rId27"/>
 </worksheet>
 </file>